--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021 영화 담당기자 22명이 뽑은 올해 최악의 연기 순위.jpg</t>
+          <t>동생 레이한테 속담, 신조어 알려주다가 탈탈 털리는 아이브 유진 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>세븐틴 비니</t>
+          <t>백챠</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:43</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -504,22 +504,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[6편] 전국시대를 평정하고 스스로를 제육천마왕이라 칭하다. 전국 3대 영..</t>
+          <t>연예인 음주운전 명부</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>청량섹시 김태</t>
+          <t>어니부깅</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -537,26 +537,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영화 등장씬 ost 대결 (토르 vs 원더우먼)</t>
+          <t>그동안 잘못 안 전세계 국가들 실제 크기</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>쿵쾅맨</t>
+          <t>누눈나난</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -570,30 +572,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>일본 여중생의 발차기 실력</t>
+          <t>(과몰입용) 지브리 캐릭터 별 MBTI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>311354_return</t>
+          <t>Laniakea</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>761</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -603,32 +607,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>남자 어른이 말하자 태도가 달라지는 업체</t>
+          <t>그림체 다르지만 캐미 자랑하는 안은진, 조이, 강예원</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTD</t>
+          <t>츄르릅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2245</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -638,27 +640,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(주관) 넷플릭스에서 시청가능한 코미디 드라마 최고봉</t>
+          <t>이게 진상질인가요? 요즘 알바 다 이 모양인가요?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JOSHUA95</t>
+          <t>지수</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">

--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,26 +471,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>동생 레이한테 속담, 신조어 알려주다가 탈탈 털리는 아이브 유진 ㅋㅋㅋ</t>
+          <t>미납된 월급 안주는 점장 참교육</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>백챠</t>
+          <t>풀썬이동혁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,26 +506,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>연예인 음주운전 명부</t>
+          <t>"어머니 때문에 여자 못 만나” 망상…친모 살해한 30대男</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>어니부깅</t>
+          <t>츄워용</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:31</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>그동안 잘못 안 전세계 국가들 실제 크기</t>
+          <t>데뷔 티저 공개하자마자 200만 찍는 신인그룹</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>누눈나난</t>
+          <t>뿌두구</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -572,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(과몰입용) 지브리 캐릭터 별 MBTI</t>
+          <t>생리통 때문에 아픈 척하는 여장남자를 조심하세요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Laniakea</t>
+          <t>레몬 목소리</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:21</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -607,26 +611,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>그림체 다르지만 캐미 자랑하는 안은진, 조이, 강예원</t>
+          <t>나혼자 산다가 가짜인 줄 아는 박나래 엄마</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>츄르릅</t>
+          <t>킷토김밥</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:13</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>895</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -640,30 +646,96 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이게 진상질인가요? 요즘 알바 다 이 모양인가요?</t>
+          <t>'이재명 아들 입시 의혹'제기 국민의힘, 전형 이름도 틀려 "심심한 유감”..</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>지수</t>
+          <t>토토얌</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:12</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>759</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>놀란가슴을 진정시켜주는데 최고는</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>울산에서 벌어진 영화같은 사건현장.gif</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>진사사</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,28 +471,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미납된 월급 안주는 점장 참교육</t>
+          <t>틱톡 후광챌린지.GIF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>풀썬이동혁</t>
+          <t>녤피치</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,28 +504,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"어머니 때문에 여자 못 만나” 망상…친모 살해한 30대男</t>
+          <t>저는 41살 미혼녀입니다.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>츄워용</t>
+          <t>초코틴틴세븐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -541,32 +537,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>데뷔 티저 공개하자마자 200만 찍는 신인그룹</t>
+          <t>골때녀 새PD는 이것만 해도 됨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>뿌두구</t>
+          <t>내 마음속에 저</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1827</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -576,32 +570,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>생리통 때문에 아픈 척하는 여장남자를 조심하세요</t>
+          <t>시즌2 기다리면서 쪄온 며느라기 1~12회 요약</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>레몬 목소리</t>
+          <t>산타세레나</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:13</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1297</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -611,32 +603,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>나혼자 산다가 가짜인 줄 아는 박나래 엄마</t>
+          <t>삼성전자 총수도 굽신거린다는 인물 ㄷㄷ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>킷토김밥</t>
+          <t>몹시섹시</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:11</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -646,28 +638,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>'이재명 아들 입시 의혹'제기 국민의힘, 전형 이름도 틀려 "심심한 유감”..</t>
+          <t>10년전 런닝맨 송지효 미모</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>토토얌</t>
+          <t>토끼네</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>759</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -681,22 +671,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>놀란가슴을 진정시켜주는데 최고는</t>
+          <t>[오징어게임] 이유미 : 쿠팡 이츠 알바하는데 오겜 인기가 터짐</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>無地태</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -714,22 +704,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>울산에서 벌어진 영화같은 사건현장.gif</t>
+          <t>구리튜브 연마</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>진사사</t>
+          <t>비비의주인</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:07</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -737,7 +727,108 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>미국식 참교육</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>영은수</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>엉덩국 구글프로필 근황</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>용시대박</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>님들 어릴때 바늘로 손뚫는거 해봤죠?ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>백챠</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1674</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>틱톡 후광챌린지.GIF</t>
+          <t>양반 비비고 표절?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>녤피치</t>
+          <t>Shyin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:02</t>
+          <t>2021.12.29 22:55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -504,30 +504,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>저는 41살 미혼녀입니다.jpg</t>
+          <t>오늘 완결난 카카페 웹툰 나 혼자만 레벨업</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>초코틴틴세븐</t>
+          <t>딸기잼쿠키</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -537,30 +539,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>골때녀 새PD는 이것만 해도 됨</t>
+          <t>82년생 김지영 보다가 든 생각</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>내 마음속에 저</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>2192</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -570,22 +574,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>시즌2 기다리면서 쪄온 며느라기 1~12회 요약</t>
+          <t>반말했다가 크게 혼난 남자친구</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>산타세레나</t>
+          <t>뽀롱뽀롱크롱</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:52</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -603,232 +607,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 총수도 굽신거린다는 인물 ㄷㄷ</t>
+          <t>'놀면 뭐하니' 스피커 논란…국민의힘 "MBC 사장 고발할 것”</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>몹시섹시</t>
+          <t>토토얌</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:48</t>
+          <t>2021.12.29 22:33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>7663</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10년전 런닝맨 송지효 미모</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>토끼네</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1042</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[오징어게임] 이유미 : 쿠팡 이츠 알바하는데 오겜 인기가 터짐</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>無地태</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1013</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>구리튜브 연마</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>비비의주인</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>미국식 참교육</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>영은수</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>엉덩국 구글프로필 근황</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>용시대박</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>님들 어릴때 바늘로 손뚫는거 해봤죠?ㅋㅋ</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>백챠</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1674</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>양반 비비고 표절?</t>
+          <t>가사 때문에 사과문 올린 빅히트 연습생.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shyin</t>
+          <t>양세종</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -504,32 +504,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오늘 완결난 카카페 웹툰 나 혼자만 레벨업</t>
+          <t>오렌지캬라멜 숨은 명곡 추천해드립니다</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>딸기잼쿠키</t>
+          <t>dazoa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2256</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -539,100 +537,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>82년생 김지영 보다가 든 생각</t>
+          <t>E와 I의 차잌ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~~</t>
+          <t>누눈나난</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>반말했다가 크게 혼난 남자친구</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>뽀롱뽀롱크롱</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>'놀면 뭐하니' 스피커 논란…국민의힘 "MBC 사장 고발할 것”</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>토토얌</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7663</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>

--- a/backend/data/instiz.xlsx
+++ b/backend/data/instiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,26 +471,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>가사 때문에 사과문 올린 빅히트 연습생.jpg</t>
+          <t>미국방송에 종종 나오는 방탄소년단 정국</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>양세종</t>
+          <t>행복한왕만두</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1161</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,22 +506,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오렌지캬라멜 숨은 명곡 추천해드립니다</t>
+          <t>🔥JTBC 사실상 최후통첩→커뮤니티 '설강화'로 불타올라🔥</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dazoa</t>
+          <t>종현인갱얼쥐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -527,7 +529,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -537,32 +539,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E와 I의 차잌ㅋㅋㅋㅋ</t>
+          <t>일본 철덕들 빡치게 만든 역대급 사건</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>누눈나난</t>
+          <t>마도서 알마</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:08</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>513</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>무려 15년을 기다린 어머니</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>나천재</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
